--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Wnt8a-Fzd4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Wnt8a-Fzd4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,19 +82,19 @@
     <t>Inflammatory-Mac</t>
   </si>
   <si>
+    <t>Wnt8a</t>
+  </si>
+  <si>
+    <t>Fzd4</t>
+  </si>
+  <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>MuSCs</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Wnt8a</t>
-  </si>
-  <si>
-    <t>Fzd4</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,13 +525,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" t="s">
         <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" t="s">
-        <v>26</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -543,13 +543,13 @@
         <v>0.2395813333333333</v>
       </c>
       <c r="H2">
-        <v>0.7187439999999999</v>
+        <v>0.718744</v>
       </c>
       <c r="I2">
-        <v>0.2448821336251614</v>
+        <v>0.4912748852030529</v>
       </c>
       <c r="J2">
-        <v>0.2467622801952005</v>
+        <v>0.4912748852030529</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>29.22839533333334</v>
+        <v>19.524618</v>
       </c>
       <c r="N2">
-        <v>87.685186</v>
+        <v>58.573854</v>
       </c>
       <c r="O2">
-        <v>0.4452121315669254</v>
+        <v>0.4154885426712971</v>
       </c>
       <c r="P2">
-        <v>0.498852598788108</v>
+        <v>0.4539723485554654</v>
       </c>
       <c r="Q2">
-        <v>7.002577925153777</v>
+        <v>4.677734013264001</v>
       </c>
       <c r="R2">
-        <v>63.023201326384</v>
+        <v>42.099606119376</v>
       </c>
       <c r="S2">
-        <v>0.1090244966939148</v>
+        <v>0.2041190861040253</v>
       </c>
       <c r="T2">
-        <v>0.123098004758255</v>
+        <v>0.2230252134219466</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -605,13 +605,13 @@
         <v>0.2395813333333333</v>
       </c>
       <c r="H3">
-        <v>0.7187439999999999</v>
+        <v>0.718744</v>
       </c>
       <c r="I3">
-        <v>0.2448821336251614</v>
+        <v>0.4912748852030529</v>
       </c>
       <c r="J3">
-        <v>0.2467622801952005</v>
+        <v>0.4912748852030529</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>15.24435933333333</v>
+        <v>15.24435933333334</v>
       </c>
       <c r="N3">
-        <v>45.733078</v>
+        <v>45.73307800000001</v>
       </c>
       <c r="O3">
-        <v>0.232204800700274</v>
+        <v>0.324403614112412</v>
       </c>
       <c r="P3">
-        <v>0.2601815181287207</v>
+        <v>0.3544508583357054</v>
       </c>
       <c r="Q3">
-        <v>3.652263934892444</v>
+        <v>3.652263934892445</v>
       </c>
       <c r="R3">
         <v>32.870375414032</v>
       </c>
       <c r="S3">
-        <v>0.05686280703348848</v>
+        <v>0.1593713482825307</v>
       </c>
       <c r="T3">
-        <v>0.064202984678092</v>
+        <v>0.1741328047389972</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,13 +649,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
         <v>25</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -667,13 +667,13 @@
         <v>0.2395813333333333</v>
       </c>
       <c r="H4">
-        <v>0.7187439999999999</v>
+        <v>0.718744</v>
       </c>
       <c r="I4">
-        <v>0.2448821336251614</v>
+        <v>0.4912748852030529</v>
       </c>
       <c r="J4">
-        <v>0.2467622801952005</v>
+        <v>0.4912748852030529</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -682,90 +682,90 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>21.177737</v>
+        <v>11.9507005</v>
       </c>
       <c r="N4">
-        <v>42.355474</v>
+        <v>23.901401</v>
       </c>
       <c r="O4">
-        <v>0.3225830677328007</v>
+        <v>0.2543137660693869</v>
       </c>
       <c r="P4">
-        <v>0.2409658830831714</v>
+        <v>0.1852460510065796</v>
       </c>
       <c r="Q4">
-        <v>5.073790467442667</v>
+        <v>2.863164760057333</v>
       </c>
       <c r="R4">
-        <v>30.442742804656</v>
+        <v>17.178988560344</v>
       </c>
       <c r="S4">
-        <v>0.0789948298977582</v>
+        <v>0.1249379662312941</v>
       </c>
       <c r="T4">
-        <v>0.05946129075885347</v>
+        <v>0.0910067324425763</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
         <v>26</v>
       </c>
       <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G5">
+        <v>0.2395813333333333</v>
+      </c>
+      <c r="H5">
+        <v>0.718744</v>
+      </c>
+      <c r="I5">
+        <v>0.4912748852030529</v>
+      </c>
+      <c r="J5">
+        <v>0.4912748852030529</v>
+      </c>
+      <c r="K5">
         <v>2</v>
       </c>
-      <c r="F5">
+      <c r="L5">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G5">
-        <v>0.1118643333333333</v>
-      </c>
-      <c r="H5">
-        <v>0.335593</v>
-      </c>
-      <c r="I5">
-        <v>0.1143393612602941</v>
-      </c>
-      <c r="J5">
-        <v>0.1152172315839129</v>
-      </c>
-      <c r="K5">
-        <v>3</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
       <c r="M5">
-        <v>29.22839533333334</v>
+        <v>0.272275</v>
       </c>
       <c r="N5">
-        <v>87.685186</v>
+        <v>0.816825</v>
       </c>
       <c r="O5">
-        <v>0.4452121315669254</v>
+        <v>0.005794077146903843</v>
       </c>
       <c r="P5">
-        <v>0.498852598788108</v>
+        <v>0.006330742102249548</v>
       </c>
       <c r="Q5">
-        <v>3.269614958366445</v>
+        <v>0.06523200753333333</v>
       </c>
       <c r="R5">
-        <v>29.426534625298</v>
+        <v>0.5870880678</v>
       </c>
       <c r="S5">
-        <v>0.05090527074869625</v>
+        <v>0.002846484585202818</v>
       </c>
       <c r="T5">
-        <v>0.05747641540080624</v>
+        <v>0.00311013459953278</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,31 +773,31 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.1118643333333333</v>
+        <v>0.2480913333333333</v>
       </c>
       <c r="H6">
-        <v>0.335593</v>
+        <v>0.744274</v>
       </c>
       <c r="I6">
-        <v>0.1143393612602941</v>
+        <v>0.5087251147969472</v>
       </c>
       <c r="J6">
-        <v>0.1152172315839129</v>
+        <v>0.5087251147969472</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>15.24435933333333</v>
+        <v>19.524618</v>
       </c>
       <c r="N6">
-        <v>45.733078</v>
+        <v>58.573854</v>
       </c>
       <c r="O6">
-        <v>0.232204800700274</v>
+        <v>0.4154885426712971</v>
       </c>
       <c r="P6">
-        <v>0.2601815181287207</v>
+        <v>0.4539723485554654</v>
       </c>
       <c r="Q6">
-        <v>1.705300093917111</v>
+        <v>4.843888512444</v>
       </c>
       <c r="R6">
-        <v>15.347700845254</v>
+        <v>43.594996611996</v>
       </c>
       <c r="S6">
-        <v>0.02655014859364322</v>
+        <v>0.2113694565672719</v>
       </c>
       <c r="T6">
-        <v>0.02997739422809085</v>
+        <v>0.2309471351335189</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,433 +835,185 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.1118643333333333</v>
+        <v>0.2480913333333333</v>
       </c>
       <c r="H7">
-        <v>0.335593</v>
+        <v>0.744274</v>
       </c>
       <c r="I7">
-        <v>0.1143393612602941</v>
+        <v>0.5087251147969472</v>
       </c>
       <c r="J7">
-        <v>0.1152172315839129</v>
+        <v>0.5087251147969472</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>21.177737</v>
+        <v>15.24435933333334</v>
       </c>
       <c r="N7">
-        <v>42.355474</v>
+        <v>45.73307800000001</v>
       </c>
       <c r="O7">
-        <v>0.3225830677328007</v>
+        <v>0.324403614112412</v>
       </c>
       <c r="P7">
-        <v>0.2409658830831714</v>
+        <v>0.3544508583357054</v>
       </c>
       <c r="Q7">
-        <v>2.369033431013666</v>
+        <v>3.781993432819112</v>
       </c>
       <c r="R7">
-        <v>14.214200586082</v>
+        <v>34.037940895372</v>
       </c>
       <c r="S7">
-        <v>0.03688394191795461</v>
+        <v>0.1650322658298814</v>
       </c>
       <c r="T7">
-        <v>0.02776342195501585</v>
+        <v>0.1803180535967082</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
         <v>22</v>
       </c>
-      <c r="B8" t="s">
-        <v>24</v>
-      </c>
       <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
         <v>25</v>
       </c>
-      <c r="D8" t="s">
-        <v>26</v>
-      </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.022363</v>
+        <v>0.2480913333333333</v>
       </c>
       <c r="H8">
-        <v>0.044726</v>
+        <v>0.744274</v>
       </c>
       <c r="I8">
-        <v>0.0228577872827856</v>
+        <v>0.5087251147969472</v>
       </c>
       <c r="J8">
-        <v>0.01535552261168168</v>
+        <v>0.5087251147969472</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>29.22839533333334</v>
+        <v>11.9507005</v>
       </c>
       <c r="N8">
-        <v>87.685186</v>
+        <v>23.901401</v>
       </c>
       <c r="O8">
-        <v>0.4452121315669254</v>
+        <v>0.2543137660693869</v>
       </c>
       <c r="P8">
-        <v>0.498852598788108</v>
+        <v>0.1852460510065796</v>
       </c>
       <c r="Q8">
-        <v>0.6536346048393334</v>
+        <v>2.964865221312333</v>
       </c>
       <c r="R8">
-        <v>3.921807629036</v>
+        <v>17.789191327874</v>
       </c>
       <c r="S8">
-        <v>0.01017656419907234</v>
+        <v>0.1293757998380928</v>
       </c>
       <c r="T8">
-        <v>0.007660142360586961</v>
+        <v>0.09423931856400336</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
         <v>22</v>
       </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.022363</v>
+        <v>0.2480913333333333</v>
       </c>
       <c r="H9">
-        <v>0.044726</v>
+        <v>0.744274</v>
       </c>
       <c r="I9">
-        <v>0.0228577872827856</v>
+        <v>0.5087251147969472</v>
       </c>
       <c r="J9">
-        <v>0.01535552261168168</v>
+        <v>0.5087251147969472</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>15.24435933333333</v>
+        <v>0.272275</v>
       </c>
       <c r="N9">
-        <v>45.733078</v>
+        <v>0.816825</v>
       </c>
       <c r="O9">
-        <v>0.232204800700274</v>
+        <v>0.005794077146903843</v>
       </c>
       <c r="P9">
-        <v>0.2601815181287207</v>
+        <v>0.006330742102249548</v>
       </c>
       <c r="Q9">
-        <v>0.3409096077713333</v>
+        <v>0.06754906778333333</v>
       </c>
       <c r="R9">
-        <v>2.045457646628</v>
+        <v>0.60794161005</v>
       </c>
       <c r="S9">
-        <v>0.005307687940448489</v>
+        <v>0.002947592561701026</v>
       </c>
       <c r="T9">
-        <v>0.003995223184767237</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>0.5</v>
-      </c>
-      <c r="G10">
-        <v>0.022363</v>
-      </c>
-      <c r="H10">
-        <v>0.044726</v>
-      </c>
-      <c r="I10">
-        <v>0.0228577872827856</v>
-      </c>
-      <c r="J10">
-        <v>0.01535552261168168</v>
-      </c>
-      <c r="K10">
-        <v>2</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>21.177737</v>
-      </c>
-      <c r="N10">
-        <v>42.355474</v>
-      </c>
-      <c r="O10">
-        <v>0.3225830677328007</v>
-      </c>
-      <c r="P10">
-        <v>0.2409658830831714</v>
-      </c>
-      <c r="Q10">
-        <v>0.473597732531</v>
-      </c>
-      <c r="R10">
-        <v>1.894390930124</v>
-      </c>
-      <c r="S10">
-        <v>0.00737353514326478</v>
-      </c>
-      <c r="T10">
-        <v>0.003700157066327483</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11">
-        <v>2</v>
-      </c>
-      <c r="F11">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G11">
-        <v>0.604545</v>
-      </c>
-      <c r="H11">
-        <v>1.813635</v>
-      </c>
-      <c r="I11">
-        <v>0.6179207178317588</v>
-      </c>
-      <c r="J11">
-        <v>0.6226649656092049</v>
-      </c>
-      <c r="K11">
-        <v>3</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>29.22839533333334</v>
-      </c>
-      <c r="N11">
-        <v>87.685186</v>
-      </c>
-      <c r="O11">
-        <v>0.4452121315669254</v>
-      </c>
-      <c r="P11">
-        <v>0.498852598788108</v>
-      </c>
-      <c r="Q11">
-        <v>17.66988025679</v>
-      </c>
-      <c r="R11">
-        <v>159.02892231111</v>
-      </c>
-      <c r="S11">
-        <v>0.275105799925242</v>
-      </c>
-      <c r="T11">
-        <v>0.3106180362684598</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12">
-        <v>2</v>
-      </c>
-      <c r="F12">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G12">
-        <v>0.604545</v>
-      </c>
-      <c r="H12">
-        <v>1.813635</v>
-      </c>
-      <c r="I12">
-        <v>0.6179207178317588</v>
-      </c>
-      <c r="J12">
-        <v>0.6226649656092049</v>
-      </c>
-      <c r="K12">
-        <v>3</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>15.24435933333333</v>
-      </c>
-      <c r="N12">
-        <v>45.733078</v>
-      </c>
-      <c r="O12">
-        <v>0.232204800700274</v>
-      </c>
-      <c r="P12">
-        <v>0.2601815181287207</v>
-      </c>
-      <c r="Q12">
-        <v>9.21590121317</v>
-      </c>
-      <c r="R12">
-        <v>82.94311091853</v>
-      </c>
-      <c r="S12">
-        <v>0.1434841571326938</v>
-      </c>
-      <c r="T12">
-        <v>0.1620059160377706</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13">
-        <v>2</v>
-      </c>
-      <c r="F13">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G13">
-        <v>0.604545</v>
-      </c>
-      <c r="H13">
-        <v>1.813635</v>
-      </c>
-      <c r="I13">
-        <v>0.6179207178317588</v>
-      </c>
-      <c r="J13">
-        <v>0.6226649656092049</v>
-      </c>
-      <c r="K13">
-        <v>2</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>21.177737</v>
-      </c>
-      <c r="N13">
-        <v>42.355474</v>
-      </c>
-      <c r="O13">
-        <v>0.3225830677328007</v>
-      </c>
-      <c r="P13">
-        <v>0.2409658830831714</v>
-      </c>
-      <c r="Q13">
-        <v>12.802895014665</v>
-      </c>
-      <c r="R13">
-        <v>76.81737008799</v>
-      </c>
-      <c r="S13">
-        <v>0.1993307607738231</v>
-      </c>
-      <c r="T13">
-        <v>0.1500410133029746</v>
+        <v>0.003220607502716768</v>
       </c>
     </row>
   </sheetData>
